--- a/TrueAug_Cheb_Cora_output.xlsx
+++ b/TrueAug_Cheb_Cora_output.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Args" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Epoch" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Split" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -853,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,77 +872,3883 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:10, time:5.073606, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+          <t>Epoch:549, time:7.683575, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:9, time:10.962792, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+          <t>Epoch:548, time:9.471616, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:8, time:6.911322, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+          <t>Epoch:547, time:6.448689, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:7, time:7.277322, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+          <t>Epoch:546, time:9.944515, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:6, time:4.744623, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+          <t>Epoch:545, time:5.518171, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:5, time:20.232692, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+          <t>Epoch:544, time:8.314062, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:4, time:18.219681, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+          <t>Epoch:543, time:6.527491, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:3, time:17.110893, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+          <t>Epoch:542, time:7.736255, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:2, time:18.434769, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+          <t>Epoch:541, time:7.432631, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:1, time:17.987433, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+          <t>Epoch:540, time:8.101011, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Epoch:539, time:8.185574, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Epoch:538, time:9.110232, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Epoch:537, time:7.646530, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epoch:536, time:9.651993, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epoch:535, time:6.277807, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epoch:534, time:9.409194, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epoch:533, time:6.303292, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epoch:532, time:7.765535, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epoch:531, time:8.615152, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Epoch:530, time:10.171804, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epoch:529, time:7.563085, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:528, time:7.635167, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:527, time:7.915438, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:526, time:8.779328, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:525, time:8.862223, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:524, time:7.599931, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:523, time:8.092699, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epoch:522, time:7.312467, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epoch:521, time:9.720850, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epoch:520, time:6.497193, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epoch:519, time:9.477981, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epoch:518, time:7.822175, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epoch:517, time:9.936150, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epoch:516, time:6.061844, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epoch:515, time:9.378359, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epoch:514, time:5.448215, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epoch:513, time:9.045495, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Epoch:512, time:7.206382, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Epoch:511, time:7.713401, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Epoch:510, time:8.546745, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Epoch:509, time:8.831354, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Epoch:508, time:6.875399, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Epoch:507, time:7.588456, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Epoch:506, time:8.025847, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Epoch:505, time:6.885114, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Epoch:504, time:12.944782, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Epoch:503, time:12.102268, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Epoch:502, time:12.928043, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Epoch:501, time:13.482203, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Epoch:500, time:12.823204, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Epoch:499, time:11.758979, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Epoch:498, time:12.479823, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Epoch:497, time:10.391460, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Epoch:496, time:11.837656, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Epoch:495, time:14.679413, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Epoch:494, time:13.350863, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Epoch:493, time:13.222658, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Epoch:492, time:11.999378, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Epoch:491, time:14.686416, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Epoch:490, time:12.400612, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Epoch:489, time:16.219836, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epoch:488, time:11.922759, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Epoch:487, time:13.421381, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Epoch:486, time:11.609648, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Epoch:485, time:13.465706, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Epoch:484, time:14.949069, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Epoch:483, time:15.156684, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Epoch:482, time:16.360980, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Epoch:481, time:16.876992, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Epoch:480, time:15.545893, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Epoch:479, time:16.417364, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Epoch:478, time:18.012892, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epoch:477, time:18.103177, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Epoch:476, time:12.469614, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Epoch:475, time:8.685190, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Epoch:474, time:10.806947, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Epoch:473, time:6.307663, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epoch:472, time:10.748859, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Epoch:471, time:5.798933, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epoch:470, time:8.869401, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Epoch:469, time:5.807389, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Epoch:468, time:9.693407, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Epoch:467, time:7.009698, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Epoch:466, time:10.686579, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Epoch:465, time:6.716046, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Epoch:464, time:13.381214, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Epoch:463, time:11.360677, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Epoch:462, time:8.889323, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Epoch:461, time:7.398388, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Epoch:460, time:9.233727, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Epoch:459, time:6.436675, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Epoch:458, time:9.284704, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Epoch:457, time:6.269323, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Epoch:456, time:10.337165, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Epoch:455, time:6.813110, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epoch:454, time:11.351352, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Epoch:453, time:5.715535, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Epoch:452, time:9.634096, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epoch:451, time:7.263381, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Epoch:450, time:8.004313, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Epoch:449, time:7.556693, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Epoch:448, time:7.318602, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epoch:447, time:8.958123, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Epoch:446, time:7.587770, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Epoch:445, time:8.877900, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Epoch:444, time:9.214191, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Epoch:443, time:7.437773, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Epoch:442, time:8.728795, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Epoch:441, time:8.811352, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Epoch:440, time:8.632640, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Epoch:439, time:6.851747, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Epoch:438, time:7.103857, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Epoch:437, time:9.523741, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epoch:436, time:7.424691, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:435, time:9.445527, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:434, time:6.899912, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:433, time:9.941428, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:432, time:6.961564, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:431, time:8.645281, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:430, time:6.488401, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:429, time:8.963001, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:428, time:7.191807, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:427, time:10.170553, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:426, time:5.644435, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:425, time:8.887895, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:424, time:7.896444, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:423, time:9.332764, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:422, time:6.625922, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:421, time:9.654076, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:420, time:5.389259, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:419, time:7.469373, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:418, time:9.105324, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:417, time:8.814372, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:416, time:7.566456, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:415, time:8.504262, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:414, time:8.240443, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:413, time:10.148689, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:412, time:7.368690, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:411, time:7.638080, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:410, time:6.754548, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:409, time:8.308365, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:408, time:8.908636, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:407, time:9.621445, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:406, time:7.331215, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Epoch:405, time:8.508588, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:404, time:7.859583, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:403, time:9.456789, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:402, time:6.469912, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:401, time:7.077539, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:400, time:9.061362, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:399, time:6.652491, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:398, time:8.220977, test_Acc: 56.00, test_bacc: 42.48, test_f1: 39.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:397, time:6.604290, test_Acc: 56.00, test_bacc: 42.48, test_f1: 39.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:396, time:9.388777, test_Acc: 56.00, test_bacc: 42.48, test_f1: 39.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:395, time:6.443846, test_Acc: 56.00, test_bacc: 42.48, test_f1: 39.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:394, time:9.161664, test_Acc: 56.00, test_bacc: 42.48, test_f1: 39.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:393, time:6.663594, test_Acc: 56.00, test_bacc: 42.48, test_f1: 39.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:392, time:7.596427, test_Acc: 56.00, test_bacc: 42.63, test_f1: 39.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:391, time:7.528360, test_Acc: 56.00, test_bacc: 42.63, test_f1: 39.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:390, time:8.610372, test_Acc: 56.00, test_bacc: 42.63, test_f1: 39.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:389, time:7.171635, test_Acc: 56.00, test_bacc: 42.63, test_f1: 39.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:388, time:10.047983, test_Acc: 56.00, test_bacc: 42.63, test_f1: 39.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:387, time:7.759154, test_Acc: 56.00, test_bacc: 42.63, test_f1: 39.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:386, time:8.046101, test_Acc: 56.00, test_bacc: 42.63, test_f1: 39.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:385, time:7.292893, test_Acc: 56.00, test_bacc: 42.63, test_f1: 39.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Epoch:384, time:8.168483, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Epoch:383, time:7.190011, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Epoch:382, time:8.468849, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Epoch:381, time:8.216997, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Epoch:380, time:8.348178, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Epoch:379, time:8.511251, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Epoch:378, time:7.572241, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Epoch:377, time:8.031065, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Epoch:376, time:8.249742, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Epoch:375, time:7.810218, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Epoch:374, time:8.184969, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Epoch:373, time:7.987689, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Epoch:372, time:7.881590, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Epoch:371, time:7.178390, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Epoch:370, time:7.668338, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Epoch:369, time:7.979491, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Epoch:368, time:8.094061, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Epoch:367, time:7.752153, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Epoch:366, time:7.532939, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Epoch:365, time:7.442957, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Epoch:364, time:7.011146, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Epoch:363, time:8.628093, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Epoch:362, time:6.674040, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Epoch:361, time:8.046460, test_Acc: 56.50, test_bacc: 42.77, test_f1: 40.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Epoch:360, time:6.972747, test_Acc: 56.70, test_bacc: 43.30, test_f1: 40.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Epoch:359, time:8.476204, test_Acc: 56.70, test_bacc: 43.30, test_f1: 40.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Epoch:358, time:7.183712, test_Acc: 56.70, test_bacc: 43.30, test_f1: 40.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Epoch:357, time:9.295766, test_Acc: 56.70, test_bacc: 43.30, test_f1: 40.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Epoch:356, time:7.077652, test_Acc: 56.70, test_bacc: 43.30, test_f1: 40.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Epoch:355, time:9.688072, test_Acc: 56.70, test_bacc: 43.30, test_f1: 40.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Epoch:354, time:7.121722, test_Acc: 56.40, test_bacc: 42.85, test_f1: 40.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Epoch:353, time:8.616192, test_Acc: 56.40, test_bacc: 42.85, test_f1: 40.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Epoch:352, time:7.169239, test_Acc: 56.40, test_bacc: 42.85, test_f1: 40.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Epoch:351, time:9.736575, test_Acc: 56.40, test_bacc: 42.85, test_f1: 40.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Epoch:350, time:7.102260, test_Acc: 56.40, test_bacc: 42.85, test_f1: 40.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Epoch:349, time:8.639014, test_Acc: 56.40, test_bacc: 42.85, test_f1: 40.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Epoch:348, time:7.724584, test_Acc: 54.80, test_bacc: 41.34, test_f1: 39.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Epoch:347, time:8.881617, test_Acc: 54.80, test_bacc: 41.34, test_f1: 39.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Epoch:346, time:7.844605, test_Acc: 54.80, test_bacc: 41.34, test_f1: 39.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Epoch:345, time:8.673442, test_Acc: 54.80, test_bacc: 41.34, test_f1: 39.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Epoch:344, time:6.892248, test_Acc: 54.80, test_bacc: 41.34, test_f1: 39.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Epoch:343, time:7.820120, test_Acc: 54.80, test_bacc: 41.34, test_f1: 39.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Epoch:342, time:7.647135, test_Acc: 53.30, test_bacc: 40.18, test_f1: 37.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Epoch:341, time:8.018239, test_Acc: 53.30, test_bacc: 40.18, test_f1: 37.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Epoch:340, time:8.166341, test_Acc: 53.30, test_bacc: 40.18, test_f1: 37.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Epoch:339, time:7.724830, test_Acc: 53.30, test_bacc: 40.18, test_f1: 37.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Epoch:338, time:9.313594, test_Acc: 53.30, test_bacc: 40.18, test_f1: 37.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Epoch:337, time:6.623685, test_Acc: 53.30, test_bacc: 40.18, test_f1: 37.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Epoch:336, time:10.377237, test_Acc: 53.30, test_bacc: 40.18, test_f1: 37.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Epoch:335, time:5.340985, test_Acc: 53.30, test_bacc: 40.18, test_f1: 37.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Epoch:334, time:9.920215, test_Acc: 52.80, test_bacc: 39.95, test_f1: 37.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Epoch:333, time:7.817087, test_Acc: 52.80, test_bacc: 39.95, test_f1: 37.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Epoch:332, time:7.233577, test_Acc: 53.50, test_bacc: 40.79, test_f1: 38.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Epoch:331, time:8.572156, test_Acc: 53.50, test_bacc: 40.79, test_f1: 38.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Epoch:330, time:8.755561, test_Acc: 52.60, test_bacc: 39.59, test_f1: 36.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Epoch:329, time:6.989326, test_Acc: 52.60, test_bacc: 39.59, test_f1: 36.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Epoch:328, time:7.634197, test_Acc: 53.10, test_bacc: 40.44, test_f1: 37.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Epoch:327, time:8.331154, test_Acc: 53.10, test_bacc: 40.44, test_f1: 37.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Epoch:326, time:8.618649, test_Acc: 52.20, test_bacc: 39.50, test_f1: 36.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Epoch:325, time:8.701875, test_Acc: 52.20, test_bacc: 39.50, test_f1: 36.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Epoch:324, time:7.988138, test_Acc: 52.20, test_bacc: 39.50, test_f1: 36.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Epoch:323, time:6.769465, test_Acc: 52.20, test_bacc: 39.50, test_f1: 36.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Epoch:322, time:6.017563, test_Acc: 51.70, test_bacc: 39.12, test_f1: 35.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Epoch:321, time:10.840215, test_Acc: 51.70, test_bacc: 39.12, test_f1: 35.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Epoch:320, time:6.271407, test_Acc: 51.10, test_bacc: 38.64, test_f1: 34.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Epoch:319, time:7.899757, test_Acc: 51.10, test_bacc: 38.64, test_f1: 34.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Epoch:318, time:7.746989, test_Acc: 51.10, test_bacc: 38.64, test_f1: 34.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Epoch:317, time:9.169456, test_Acc: 51.10, test_bacc: 38.64, test_f1: 34.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Epoch:316, time:7.478014, test_Acc: 50.60, test_bacc: 38.14, test_f1: 33.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Epoch:315, time:7.594986, test_Acc: 50.60, test_bacc: 38.14, test_f1: 33.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Epoch:314, time:7.346938, test_Acc: 49.30, test_bacc: 37.01, test_f1: 31.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Epoch:313, time:6.750214, test_Acc: 49.30, test_bacc: 37.01, test_f1: 31.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Epoch:312, time:10.502230, test_Acc: 48.80, test_bacc: 36.65, test_f1: 29.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Epoch:311, time:5.867022, test_Acc: 48.80, test_bacc: 36.65, test_f1: 29.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Epoch:310, time:8.210533, test_Acc: 48.80, test_bacc: 36.65, test_f1: 29.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Epoch:309, time:6.720181, test_Acc: 48.80, test_bacc: 36.65, test_f1: 29.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Epoch:308, time:7.283018, test_Acc: 48.20, test_bacc: 36.17, test_f1: 29.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Epoch:307, time:8.548342, test_Acc: 48.20, test_bacc: 36.17, test_f1: 29.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Epoch:306, time:8.272308, test_Acc: 42.00, test_bacc: 25.04, test_f1: 20.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Epoch:305, time:8.125092, test_Acc: 42.00, test_bacc: 25.04, test_f1: 20.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Epoch:304, time:8.326941, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Epoch:303, time:7.295031, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Epoch:302, time:8.045245, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Epoch:301, time:8.147645, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Epoch:300, time:7.902874, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Epoch:299, time:7.327116, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Epoch:298, time:8.487522, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Epoch:297, time:6.817032, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Epoch:296, time:7.101726, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Epoch:295, time:8.267122, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Epoch:294, time:6.509202, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Epoch:293, time:9.751585, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Epoch:292, time:6.864030, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Epoch:291, time:9.552899, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Epoch:290, time:6.639106, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Epoch:289, time:10.369432, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Epoch:288, time:5.544219, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Epoch:287, time:8.111830, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Epoch:286, time:7.656841, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Epoch:285, time:7.272697, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Epoch:284, time:8.675518, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Epoch:283, time:8.846372, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Epoch:282, time:7.541925, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Epoch:281, time:8.184238, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Epoch:280, time:7.480792, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Epoch:279, time:8.381857, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Epoch:278, time:8.898909, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Epoch:277, time:7.727406, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Epoch:276, time:6.522375, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Epoch:275, time:6.801669, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epoch:274, time:8.124132, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epoch:273, time:6.354334, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Epoch:272, time:10.739181, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Epoch:271, time:6.280159, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epoch:270, time:8.099302, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epoch:269, time:8.396666, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch:268, time:10.253719, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Epoch:267, time:7.785531, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epoch:266, time:8.688609, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epoch:265, time:6.719663, test_Acc: 41.50, test_bacc: 24.28, test_f1: 19.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Epoch:264, time:7.131922, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Epoch:263, time:8.895159, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epoch:262, time:8.756339, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epoch:261, time:7.177993, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Epoch:260, time:8.007108, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Epoch:259, time:8.148038, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epoch:258, time:7.769024, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epoch:257, time:8.217663, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Epoch:256, time:8.354620, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Epoch:255, time:8.864533, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epoch:254, time:9.335814, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epoch:253, time:7.468385, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Epoch:252, time:7.941707, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Epoch:251, time:6.934997, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Epoch:250, time:5.759277, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Epoch:249, time:7.917920, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Epoch:248, time:6.414500, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Epoch:247, time:10.150141, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Epoch:246, time:6.922994, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Epoch:245, time:8.872639, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Epoch:244, time:6.849189, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Epoch:243, time:10.004438, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Epoch:242, time:6.604178, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Epoch:241, time:9.348495, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Epoch:240, time:7.161554, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Epoch:239, time:9.190133, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Epoch:238, time:6.369727, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Epoch:237, time:10.277889, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Epoch:236, time:6.959411, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Epoch:235, time:9.254889, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Epoch:234, time:6.283401, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Epoch:233, time:9.261348, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Epoch:232, time:6.530056, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Epoch:231, time:7.839201, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Epoch:230, time:9.713510, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Epoch:229, time:9.539112, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Epoch:228, time:6.304195, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Epoch:227, time:9.231156, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Epoch:226, time:6.558314, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Epoch:225, time:9.065781, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Epoch:224, time:6.910267, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Epoch:223, time:9.462316, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Epoch:222, time:6.850496, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Epoch:221, time:8.469397, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Epoch:220, time:7.717740, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Epoch:219, time:9.490487, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Epoch:218, time:7.293195, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Epoch:217, time:9.479162, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Epoch:216, time:6.448046, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Epoch:215, time:8.142248, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Epoch:214, time:7.891184, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Epoch:213, time:7.411216, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Epoch:212, time:7.707158, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Epoch:211, time:7.404826, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Epoch:210, time:9.576342, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Epoch:209, time:6.052651, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Epoch:208, time:7.750266, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Epoch:207, time:6.928834, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Epoch:206, time:8.768095, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Epoch:205, time:7.611936, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Epoch:204, time:9.748451, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Epoch:203, time:6.757298, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Epoch:202, time:7.648978, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Epoch:201, time:9.281989, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Epoch:200, time:7.463942, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Epoch:199, time:8.704571, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Epoch:198, time:8.474778, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Epoch:197, time:6.836650, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Epoch:196, time:5.953416, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Epoch:195, time:10.106801, test_Acc: 41.80, test_bacc: 24.52, test_f1: 19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Epoch:194, time:6.097915, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Epoch:193, time:7.516466, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Epoch:192, time:7.672847, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Epoch:191, time:8.405416, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Epoch:190, time:8.170126, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Epoch:189, time:9.067481, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Epoch:188, time:6.949921, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Epoch:187, time:7.725172, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Epoch:186, time:9.020177, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Epoch:185, time:8.505716, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Epoch:184, time:8.125196, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Epoch:183, time:8.368870, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Epoch:182, time:7.317734, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Epoch:181, time:8.150662, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Epoch:180, time:7.984016, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Epoch:179, time:8.587678, test_Acc: 42.00, test_bacc: 24.47, test_f1: 18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Epoch:178, time:6.337333, test_Acc: 41.80, test_bacc: 24.24, test_f1: 18.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Epoch:177, time:7.860120, test_Acc: 41.80, test_bacc: 24.24, test_f1: 18.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Epoch:176, time:8.262995, test_Acc: 41.80, test_bacc: 24.24, test_f1: 18.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Epoch:175, time:7.233497, test_Acc: 41.80, test_bacc: 24.24, test_f1: 18.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Epoch:174, time:9.581484, test_Acc: 41.80, test_bacc: 24.24, test_f1: 18.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Epoch:173, time:8.897146, test_Acc: 41.80, test_bacc: 24.24, test_f1: 18.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Epoch:172, time:6.803328, test_Acc: 41.80, test_bacc: 24.24, test_f1: 18.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Epoch:171, time:7.459955, test_Acc: 41.80, test_bacc: 24.24, test_f1: 18.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Epoch:170, time:7.669174, test_Acc: 43.30, test_bacc: 27.01, test_f1: 17.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Epoch:169, time:7.793982, test_Acc: 40.80, test_bacc: 23.17, test_f1: 16.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Epoch:168, time:7.870316, test_Acc: 43.10, test_bacc: 26.85, test_f1: 17.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Epoch:167, time:8.490880, test_Acc: 41.10, test_bacc: 23.48, test_f1: 17.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Epoch:166, time:7.369821, test_Acc: 43.30, test_bacc: 26.94, test_f1: 17.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Epoch:165, time:6.924224, test_Acc: 43.30, test_bacc: 26.94, test_f1: 17.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Epoch:164, time:7.838611, test_Acc: 43.30, test_bacc: 26.94, test_f1: 17.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Epoch:163, time:11.497966, test_Acc: 43.20, test_bacc: 26.77, test_f1: 17.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Epoch:162, time:7.178590, test_Acc: 43.20, test_bacc: 26.77, test_f1: 17.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Epoch:161, time:7.896870, test_Acc: 43.20, test_bacc: 26.77, test_f1: 17.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Epoch:160, time:8.053083, test_Acc: 43.20, test_bacc: 26.77, test_f1: 17.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Epoch:159, time:8.512557, test_Acc: 43.10, test_bacc: 26.60, test_f1: 16.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Epoch:158, time:7.780559, test_Acc: 43.10, test_bacc: 26.60, test_f1: 16.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Epoch:157, time:8.488876, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Epoch:156, time:7.673424, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Epoch:155, time:9.995478, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Epoch:154, time:7.646471, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Epoch:153, time:8.451280, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Epoch:152, time:7.093821, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Epoch:151, time:8.159129, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Epoch:150, time:8.020378, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Epoch:149, time:8.321438, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Epoch:148, time:7.228866, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Epoch:147, time:8.174711, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Epoch:146, time:8.689900, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Epoch:145, time:7.819673, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Epoch:144, time:8.843323, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Epoch:143, time:8.142716, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Epoch:142, time:8.458328, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Epoch:141, time:7.529210, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Epoch:140, time:8.103138, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Epoch:139, time:8.316119, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Epoch:138, time:6.693893, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Epoch:137, time:7.641280, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Epoch:136, time:10.274784, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Epoch:135, time:5.763407, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Epoch:134, time:9.798649, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Epoch:133, time:6.091859, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Epoch:132, time:7.933773, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Epoch:131, time:7.318835, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Epoch:130, time:8.535348, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Epoch:129, time:8.736385, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Epoch:128, time:10.216751, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Epoch:127, time:6.536497, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Epoch:126, time:8.673677, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Epoch:125, time:6.145227, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Epoch:124, time:8.615203, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Epoch:123, time:8.374819, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Epoch:122, time:8.338753, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Epoch:121, time:7.888966, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Epoch:120, time:7.992099, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Epoch:119, time:8.332320, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Epoch:118, time:8.185390, test_Acc: 41.30, test_bacc: 23.67, test_f1: 15.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Epoch:117, time:7.714533, test_Acc: 41.20, test_bacc: 23.57, test_f1: 15.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Epoch:116, time:8.791570, test_Acc: 41.20, test_bacc: 23.57, test_f1: 15.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Epoch:115, time:7.647811, test_Acc: 41.00, test_bacc: 23.37, test_f1: 15.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Epoch:114, time:7.805849, test_Acc: 41.00, test_bacc: 23.37, test_f1: 15.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Epoch:113, time:8.389345, test_Acc: 40.50, test_bacc: 22.87, test_f1: 15.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Epoch:112, time:7.022757, test_Acc: 40.50, test_bacc: 22.87, test_f1: 15.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Epoch:111, time:10.210374, test_Acc: 40.30, test_bacc: 22.67, test_f1: 15.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Epoch:110, time:7.133350, test_Acc: 40.30, test_bacc: 22.67, test_f1: 15.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Epoch:109, time:8.584560, test_Acc: 40.20, test_bacc: 22.57, test_f1: 15.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Epoch:108, time:6.481287, test_Acc: 40.20, test_bacc: 22.57, test_f1: 15.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Epoch:107, time:9.282057, test_Acc: 39.80, test_bacc: 22.18, test_f1: 15.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Epoch:106, time:6.832853, test_Acc: 39.80, test_bacc: 22.18, test_f1: 15.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Epoch:105, time:9.006026, test_Acc: 39.10, test_bacc: 21.48, test_f1: 15.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Epoch:104, time:7.073602, test_Acc: 39.10, test_bacc: 21.48, test_f1: 15.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Epoch:103, time:7.586722, test_Acc: 38.80, test_bacc: 21.13, test_f1: 14.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Epoch:102, time:8.892707, test_Acc: 38.80, test_bacc: 21.13, test_f1: 14.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Epoch:101, time:5.727782, test_Acc: 37.90, test_bacc: 20.24, test_f1: 14.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Epoch:100, time:9.247793, test_Acc: 37.90, test_bacc: 20.24, test_f1: 14.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Epoch:99, time:6.545769, test_Acc: 37.60, test_bacc: 19.94, test_f1: 14.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Epoch:98, time:7.489194, test_Acc: 37.60, test_bacc: 19.94, test_f1: 14.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Epoch:97, time:8.073321, test_Acc: 36.80, test_bacc: 19.15, test_f1: 13.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Epoch:96, time:7.256929, test_Acc: 36.80, test_bacc: 19.15, test_f1: 13.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Epoch:95, time:8.171326, test_Acc: 36.30, test_bacc: 18.65, test_f1: 13.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Epoch:94, time:8.293361, test_Acc: 36.50, test_bacc: 18.85, test_f1: 13.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Epoch:93, time:6.917748, test_Acc: 33.10, test_bacc: 15.48, test_f1: 9.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Epoch:92, time:8.050740, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Epoch:91, time:7.229001, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Epoch:90, time:9.284875, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Epoch:89, time:6.930223, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Epoch:88, time:8.044336, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Epoch:87, time:8.177523, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Epoch:86, time:8.633685, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Epoch:85, time:10.045874, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Epoch:84, time:14.280330, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Epoch:83, time:14.779892, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Epoch:82, time:16.389866, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Epoch:81, time:10.387501, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Epoch:80, time:12.077434, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Epoch:79, time:12.535814, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Epoch:78, time:10.912051, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Epoch:77, time:10.147976, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Epoch:76, time:9.309055, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Epoch:75, time:14.531812, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Epoch:74, time:14.228945, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Epoch:73, time:12.277894, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Epoch:72, time:9.983818, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Epoch:71, time:11.744339, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Epoch:70, time:12.067798, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Epoch:69, time:11.996469, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Epoch:68, time:13.579307, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Epoch:67, time:10.953020, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Epoch:66, time:12.144009, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Epoch:65, time:15.132592, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Epoch:64, time:12.011817, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Epoch:63, time:14.783076, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Epoch:62, time:14.022977, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Epoch:61, time:18.404495, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Epoch:60, time:14.826841, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Epoch:59, time:17.260906, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Epoch:58, time:15.031876, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Epoch:57, time:15.377812, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Epoch:56, time:18.506784, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Epoch:55, time:10.443272, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Epoch:54, time:7.882382, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Epoch:53, time:7.522588, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Epoch:52, time:7.708128, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Epoch:51, time:6.655990, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:10.421822, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:5.502830, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:8.725344, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:7.673362, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:9.061006, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:6.243229, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:9.112186, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:7.546654, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:9.568681, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:6.379025, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:9.239515, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:7.614975, test_Acc: 31.80, test_bacc: 14.24, test_f1: 6.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:10.521889, test_Acc: 21.30, test_bacc: 10.95, test_f1: 6.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:6.208616, test_Acc: 10.10, test_bacc: 13.82, test_f1: 2.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:10.321774, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:8.278903, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:7.988838, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:6.188317, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:10.437946, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:5.593451, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:9.014427, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:7.138503, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:9.741966, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:7.325026, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:6.627028, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:7.523433, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:9.406564, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:7.807422, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:5.541556, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:7.651592, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:7.813300, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:8.632130, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:5.157288, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:11.020659, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:9.245731, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:6.052437, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:8.143133, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:9.269045, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:7.282001, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:6.159269, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:5.073606, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:10.962792, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:6.911322, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:7.277322, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:4.744623, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:20.232692, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:18.219681, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:17.110893, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:18.434769, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:17.987433, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
           <t>Epoch:0, time:18.179359, test_Acc: 10.30, test_bacc: 14.29, test_f1: 2.67</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Split_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>split: 0, test_Acc: 56.60, test_bacc: 43.01, test_f1: 40.44</t>
         </is>
       </c>
     </row>
